--- a/Data/EUDA/Cannabis_detaille/enfants_femmes.xlsx
+++ b/Data/EUDA/Cannabis_detaille/enfants_femmes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Not living with children</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Not living with children</t>
+          <t>Living with children</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Living with children</t>
+          <t>Not known / missing</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -472,18 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
         <v>43</v>
       </c>
     </row>
@@ -494,18 +486,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>488</v>
       </c>
       <c r="C3" t="n">
-        <v>488</v>
+        <v>160</v>
       </c>
       <c r="D3" t="n">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
-      </c>
-      <c r="F3" t="n">
         <v>686</v>
       </c>
     </row>
@@ -516,18 +505,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
         <v>31</v>
       </c>
     </row>
@@ -538,18 +524,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>71</v>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
         <v>80</v>
       </c>
     </row>
@@ -560,16 +543,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -580,18 +560,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" t="n">
         <v>53</v>
       </c>
     </row>
@@ -602,18 +579,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>574</v>
       </c>
       <c r="C8" t="n">
-        <v>574</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="E8" t="n">
-        <v>260</v>
-      </c>
-      <c r="F8" t="n">
         <v>894</v>
       </c>
     </row>
@@ -624,14 +598,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+      <c r="E9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -642,18 +613,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -664,18 +632,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>2485</v>
       </c>
       <c r="C11" t="n">
-        <v>2485</v>
+        <v>568</v>
       </c>
       <c r="D11" t="n">
-        <v>568</v>
+        <v>183</v>
       </c>
       <c r="E11" t="n">
-        <v>183</v>
-      </c>
-      <c r="F11" t="n">
         <v>3236</v>
       </c>
     </row>
@@ -686,18 +651,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>2538</v>
       </c>
       <c r="C12" t="n">
-        <v>2538</v>
+        <v>797</v>
       </c>
       <c r="D12" t="n">
-        <v>797</v>
+        <v>773</v>
       </c>
       <c r="E12" t="n">
-        <v>773</v>
-      </c>
-      <c r="F12" t="n">
         <v>4108</v>
       </c>
     </row>
@@ -708,18 +670,15 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="E13" t="n">
-        <v>196</v>
-      </c>
-      <c r="F13" t="n">
         <v>213</v>
       </c>
     </row>
@@ -733,7 +692,6 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -742,18 +700,15 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>60</v>
       </c>
       <c r="C15" t="n">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="D15" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
         <v>189</v>
       </c>
     </row>
@@ -764,18 +719,15 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="E16" t="n">
-        <v>259</v>
-      </c>
-      <c r="F16" t="n">
         <v>311</v>
       </c>
     </row>
@@ -786,18 +738,15 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2013</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>33</v>
-      </c>
-      <c r="F17" t="n">
         <v>62</v>
       </c>
     </row>
@@ -808,16 +757,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
       <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -828,16 +774,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -848,16 +791,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
-      </c>
-      <c r="D20" t="n">
         <v>3</v>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
         <v>9</v>
       </c>
     </row>
@@ -868,18 +808,15 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>584</v>
       </c>
       <c r="C21" t="n">
-        <v>584</v>
+        <v>145</v>
       </c>
       <c r="D21" t="n">
-        <v>145</v>
+        <v>293</v>
       </c>
       <c r="E21" t="n">
-        <v>293</v>
-      </c>
-      <c r="F21" t="n">
         <v>1022</v>
       </c>
     </row>
@@ -893,7 +830,6 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -902,18 +838,15 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" t="n">
         <v>49</v>
       </c>
     </row>
@@ -924,16 +857,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>137</v>
       </c>
       <c r="C24" t="n">
-        <v>137</v>
-      </c>
-      <c r="D24" t="n">
         <v>62</v>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
         <v>199</v>
       </c>
     </row>
@@ -944,18 +874,15 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
-      </c>
-      <c r="F25" t="n">
         <v>60</v>
       </c>
     </row>
@@ -966,18 +893,15 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>50</v>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
         <v>55</v>
       </c>
     </row>
@@ -988,16 +912,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1008,18 +929,15 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>428</v>
       </c>
       <c r="C28" t="n">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="D28" t="n">
-        <v>415</v>
+        <v>36</v>
       </c>
       <c r="E28" t="n">
-        <v>36</v>
-      </c>
-      <c r="F28" t="n">
         <v>879</v>
       </c>
     </row>
@@ -1030,18 +948,15 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1052,18 +967,15 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="E30" t="n">
-        <v>234</v>
-      </c>
-      <c r="F30" t="n">
         <v>277</v>
       </c>
     </row>
@@ -1073,7 +985,6 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1085,7 +996,6 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1097,7 +1007,6 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1109,7 +1018,6 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
